--- a/Documentie gekregen/20150829_criteria Peilingslijst Barroc-IT z.p. v1-0.xlsx
+++ b/Documentie gekregen/20150829_criteria Peilingslijst Barroc-IT z.p. v1-0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2015-2016\Excel\Klas 2\Barroc-IT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11265"/>
+    <workbookView xWindow="12220" yWindow="560" windowWidth="25200" windowHeight="11260"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Blad1!$A$3:$G$48</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -504,7 +502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +533,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -546,23 +550,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -570,34 +574,34 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -606,41 +610,41 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,108 +653,108 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,35 +762,35 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -795,20 +799,20 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -817,7 +821,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -825,93 +829,93 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,7 +923,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -927,17 +931,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -948,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1065,6 +1069,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,56 +1161,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1629,7 +1636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1664,7 +1671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1841,7 +1848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1849,48 +1856,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="163" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="15" thickBot="1"/>
+    <row r="3" spans="1:11" ht="46" thickBot="1">
       <c r="A3" s="41" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1"/>
+    <row r="5" spans="1:11" ht="27" thickBot="1">
+      <c r="A5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1904,39 +1911,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
+    <row r="6" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.25" customHeight="1" thickBot="1">
+      <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="71" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1947,9 +1954,9 @@
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
+    <row r="9" spans="1:11" ht="25" thickBot="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="7" t="s">
         <v>71</v>
       </c>
@@ -1962,9 +1969,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="55"/>
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1979,9 +1986,9 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
+    <row r="11" spans="1:11" ht="25" thickBot="1">
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1994,9 +2001,9 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2010,9 +2017,9 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:11" ht="43" thickBot="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="19" t="s">
         <v>40</v>
       </c>
@@ -2028,10 +2035,10 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="19" t="s">
+    <row r="14" spans="1:11" ht="29" thickBot="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="80" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="24"/>
@@ -2044,9 +2051,9 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+    <row r="15" spans="1:11" ht="49" thickBot="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
@@ -2060,23 +2067,23 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="20"/>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55"/>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="A17" s="69"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
@@ -2088,9 +2095,9 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
+    <row r="18" spans="1:11" ht="37" thickBot="1">
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="19" t="s">
         <v>33</v>
       </c>
@@ -2104,10 +2111,10 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="19" t="s">
+    <row r="19" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A19" s="69"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="80" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="24"/>
@@ -2117,10 +2124,10 @@
       </c>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="80" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="24"/>
@@ -2130,9 +2137,9 @@
       </c>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
+    <row r="21" spans="1:11" ht="117.75" customHeight="1" thickBot="1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
@@ -2148,22 +2155,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="56"/>
+    <row r="22" spans="1:11" ht="25" thickBot="1">
+      <c r="A22" s="70"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="A23" s="68">
         <v>2</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="71" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2175,9 +2182,9 @@
       <c r="G23" s="26"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55"/>
+    <row r="24" spans="1:11" ht="37" thickBot="1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="19" t="s">
         <v>34</v>
       </c>
@@ -2191,9 +2198,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
+    <row r="25" spans="1:11" ht="28">
+      <c r="A25" s="69"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="35" t="s">
         <v>70</v>
       </c>
@@ -2205,9 +2212,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="57"/>
+    <row r="26" spans="1:11" ht="42">
+      <c r="A26" s="69"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="36" t="s">
         <v>69</v>
       </c>
@@ -2220,9 +2227,9 @@
       </c>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="1:11" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55"/>
+    <row r="27" spans="1:11" ht="14.75" customHeight="1" thickBot="1">
+      <c r="A27" s="69"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="7" t="s">
         <v>78</v>
       </c>
@@ -2234,10 +2241,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="7" t="s">
+    <row r="28" spans="1:11" ht="57" thickBot="1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="80" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -2252,9 +2259,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="55"/>
+    <row r="29" spans="1:11" ht="37" thickBot="1">
+      <c r="A29" s="69"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="7" t="s">
         <v>89</v>
       </c>
@@ -2266,9 +2273,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="55"/>
+    <row r="30" spans="1:11" ht="37" thickBot="1">
+      <c r="A30" s="69"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="19" t="s">
         <v>44</v>
       </c>
@@ -2280,22 +2287,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="56"/>
+    <row r="31" spans="1:11" ht="25" thickBot="1">
+      <c r="A31" s="70"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51">
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
+    </row>
+    <row r="32" spans="1:11" ht="34" thickBot="1">
+      <c r="A32" s="68">
         <v>3</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="71" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="45" t="s">
@@ -2311,9 +2318,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:8" ht="56" thickBot="1">
+      <c r="A33" s="69"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2327,9 +2334,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="55"/>
+    <row r="34" spans="1:8" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="7" t="s">
         <v>10</v>
       </c>
@@ -2338,9 +2345,9 @@
       <c r="F34" s="25"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="55"/>
+    <row r="35" spans="1:8" ht="49" thickBot="1">
+      <c r="A35" s="69"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="10" t="s">
         <v>45</v>
       </c>
@@ -2352,9 +2359,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
-      <c r="B36" s="55"/>
+    <row r="36" spans="1:8" ht="25" thickBot="1">
+      <c r="A36" s="69"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="39" t="s">
         <v>19</v>
       </c>
@@ -2366,9 +2373,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-      <c r="B37" s="55"/>
+    <row r="37" spans="1:8" ht="28" thickBot="1">
+      <c r="A37" s="69"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="19" t="s">
         <v>22</v>
       </c>
@@ -2380,9 +2387,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="55"/>
+    <row r="38" spans="1:8" ht="28" thickBot="1">
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="19" t="s">
         <v>20</v>
       </c>
@@ -2394,9 +2401,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="55"/>
+    <row r="39" spans="1:8" ht="15" thickBot="1">
+      <c r="A39" s="69"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="19" t="s">
         <v>21</v>
       </c>
@@ -2408,9 +2415,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
-      <c r="B40" s="55"/>
+    <row r="40" spans="1:8" ht="28" thickBot="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="19" t="s">
         <v>23</v>
       </c>
@@ -2422,22 +2429,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
-      <c r="B41" s="56"/>
+    <row r="41" spans="1:8" ht="25" thickBot="1">
+      <c r="A41" s="69"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-    </row>
-    <row r="42" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51">
+      <c r="D41" s="75"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
+    </row>
+    <row r="42" spans="1:8" ht="43" thickBot="1">
+      <c r="A42" s="68">
         <v>4</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="71" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -2453,9 +2460,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52"/>
-      <c r="B43" s="55"/>
+    <row r="43" spans="1:8" ht="15" thickBot="1">
+      <c r="A43" s="69"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="40" t="s">
         <v>27</v>
       </c>
@@ -2469,9 +2476,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52"/>
-      <c r="B44" s="55"/>
+    <row r="44" spans="1:8" ht="14.75" customHeight="1" thickBot="1">
+      <c r="A44" s="69"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="40" t="s">
         <v>30</v>
       </c>
@@ -2483,9 +2490,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="55"/>
+    <row r="45" spans="1:8" ht="25" thickBot="1">
+      <c r="A45" s="69"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="40" t="s">
         <v>29</v>
       </c>
@@ -2494,9 +2501,9 @@
       <c r="F45" s="25"/>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="55"/>
+    <row r="46" spans="1:8" ht="15" thickBot="1">
+      <c r="A46" s="69"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="40" t="s">
         <v>37</v>
       </c>
@@ -2510,9 +2517,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="55"/>
+    <row r="47" spans="1:8" ht="15" thickBot="1">
+      <c r="A47" s="69"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="40" t="s">
         <v>68</v>
       </c>
@@ -2524,35 +2531,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="56"/>
+    <row r="48" spans="1:8" ht="15" thickBot="1">
+      <c r="A48" s="70"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="18">
       <c r="B51" s="4"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="77"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2560,14 +2567,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B8:B22"/>
@@ -2579,10 +2578,23 @@
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A8:A22"/>
     <mergeCell ref="D48:G48"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2651,13 +2663,32 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{271F5045-A67E-41AC-829E-BC2AD412C952}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{271F5045-A67E-41AC-829E-BC2AD412C952}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610FA42E-6078-45D8-B768-6CFC33AD8E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610FA42E-6078-45D8-B768-6CFC33AD8E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B980FABE-87AA-4015-9B8D-1BD96C91950D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B980FABE-87AA-4015-9B8D-1BD96C91950D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>